--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2613496.746721144</v>
+        <v>-2616429.25569046</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>142.4728006292631</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>350.5856126944413</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>137.8594782666084</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>140.1636626322102</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -865,13 +865,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>279.5106614771179</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163.939837924303</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>284.6200697443034</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>118.0056219508402</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>315.9099902864843</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.786859782538162</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>239.5185571033088</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652687</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652558</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972048</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
         <v>262.2383508445512</v>
@@ -3964,7 +3964,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.0698633299012</v>
+        <v>351.3208776528134</v>
       </c>
       <c r="C2" t="n">
-        <v>408.0698633299012</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>408.0698633299012</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>408.0698633299012</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>408.0698633299012</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1854.294463223941</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1501.525807953827</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1128.060049692747</v>
       </c>
       <c r="Y2" t="n">
-        <v>794.6697033940229</v>
+        <v>737.9207177169351</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4513,10 +4513,10 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594257</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="6">
@@ -4644,7 +4644,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641994</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>533.4554588638564</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D8" t="n">
-        <v>533.4554588638564</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E8" t="n">
-        <v>533.4554588638564</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F8" t="n">
-        <v>526.5099581146529</v>
+        <v>74.72179980352927</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>60.79839574212017</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4981,22 +4981,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E25" t="n">
         <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N25" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O25" t="n">
         <v>2179.340199382518</v>
@@ -6169,7 +6169,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
         <v>2438.456847547834</v>
@@ -6178,7 +6178,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954154</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7075,16 +7075,16 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7120,19 +7120,19 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7564,40 +7564,40 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,22 +7831,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>221.0467526719084</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>222.8000911417444</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>63.19855732635367</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.6607792729252</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>6.771212764859854</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185974</v>
+        <v>936391.4095185975</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761495089</v>
+        <v>7852.637614951069</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26433,31 +26433,31 @@
         <v>5067.592601670438</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670423</v>
       </c>
       <c r="I4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="L4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>13058.4518647639</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13058.4518647639</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13058.4518647639</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768223.7874613487</v>
+        <v>-768686.6193251136</v>
       </c>
       <c r="C6" t="n">
         <v>-283923.5839911409</v>
       </c>
       <c r="D6" t="n">
-        <v>-283923.5839911409</v>
+        <v>-283923.583991141</v>
       </c>
       <c r="E6" t="n">
-        <v>-1043057.307183791</v>
+        <v>-1043093.510037487</v>
       </c>
       <c r="F6" t="n">
-        <v>-114042.7600405284</v>
+        <v>-114077.4979659643</v>
       </c>
       <c r="G6" t="n">
-        <v>-106190.1224255775</v>
+        <v>-106224.8603510132</v>
       </c>
       <c r="H6" t="n">
-        <v>-106190.1224255775</v>
+        <v>-106224.8603510132</v>
       </c>
       <c r="I6" t="n">
         <v>-135650.2857123111</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>189.8927802035265</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.0742760238433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9905321479588</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>101.6178689117502</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>242.6756726418388</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>168.5173763857508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>97.87417973431064</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.135912981819</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.76331713866892</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K25" t="n">
         <v>288.6172359016747</v>
@@ -36525,13 +36525,13 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q25" t="n">
         <v>144.6869047919381</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
